--- a/data/trans_dic/P3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>38,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>52,64%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>55,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>46,94%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41,49%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>57,7%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>58,72%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>50,79%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>47,99%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>37,39%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>58,77%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>50,23%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>48,04%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>49,26%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>37,38%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>34,86%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,75; 69,61</t>
+          <t>54,39; 70,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,57; 69,27</t>
+          <t>53,14; 69,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 63,1</t>
+          <t>44,43; 61,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,45; 60,21</t>
+          <t>41,11; 60,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,32; 48,06</t>
+          <t>41,5; 62,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,93; 60,27</t>
+          <t>28,59; 48,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,1; 64,39</t>
+          <t>20,37; 38,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,53; 54,32</t>
+          <t>45,18; 61,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,26; 53,01</t>
+          <t>46,96; 64,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 45,66</t>
+          <t>39,05; 54,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,81; 62,88</t>
+          <t>37,92; 52,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,17; 64,25</t>
+          <t>38,22; 55,5</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>45,19; 56,12</t>
+          <t>26,76; 45,15</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>41,88; 54,06</t>
+          <t>33,05; 50,63</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 43,41</t>
+          <t>51,8; 63,02</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>53,25; 64,75</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>43,67; 55,52</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>41,71; 53,94</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>42,61; 55,92</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>30,84; 44,08</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>28,42; 41,43</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>31,93%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>34,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>40,2%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>37,93%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>42,44%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>41,47%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>33,64%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>34,55%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 46,3</t>
+          <t>31,16; 47,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 47,8</t>
+          <t>30,11; 48,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,88; 50,84</t>
+          <t>33,49; 49,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,66; 48,81</t>
+          <t>31,9; 48,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,64; 45,04</t>
+          <t>32,62; 54,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,9; 49,23</t>
+          <t>25,24; 44,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,71; 43,12</t>
+          <t>25,69; 43,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 48,92</t>
+          <t>34,92; 48,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,35; 48,76</t>
+          <t>28,41; 42,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 40,27</t>
+          <t>35,88; 48,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,77; 45,56</t>
+          <t>35,36; 48,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 43,7</t>
+          <t>33,52; 49,42</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>37,71; 47,32</t>
+          <t>25,53; 39,65</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 47,36</t>
+          <t>27,86; 42,98</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 40,1</t>
+          <t>34,88; 46,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>31,59; 43,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>37,18; 47,32</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>35,47; 46,28</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>35,51; 50,42</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>28,28; 39,8</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>28,85; 40,22</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>43,42%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>29,32%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>44,65%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>46,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44,14%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43,75%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45,21%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>24,54%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>44,87%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>44,98%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>43,33%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>43,86%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>43,76%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>44,35%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>27,06%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,18; 51,54</t>
+          <t>38,17; 51,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,07; 52,78</t>
+          <t>34,84; 49,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,33; 49,51</t>
+          <t>35,17; 48,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 51,06</t>
+          <t>36,62; 50,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 35,76</t>
+          <t>35,29; 50,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,8; 50,25</t>
+          <t>23,62; 36,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,24; 52,39</t>
+          <t>26,31; 40,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,71; 49,32</t>
+          <t>39,64; 50,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,59; 49,15</t>
+          <t>39,25; 50,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 30,29</t>
+          <t>38,59; 48,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,46; 49,4</t>
+          <t>38,4; 48,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,81; 50,34</t>
+          <t>39,6; 50,76</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>39,35; 47,3</t>
+          <t>19,26; 30,11</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>39,44; 48,29</t>
+          <t>20,62; 32,9</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,03</t>
+          <t>40,55; 49,25</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>39,22; 48,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>39,28; 47,37</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 47,39</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>39,73; 49,25</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 31,12</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 34,84</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,59%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>51,91%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>51,36%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,32%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>48,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>52,78%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>50,87%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>49,7%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>49,62%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>50,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>48,89%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>46,69%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>34,31%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48,17; 59,86</t>
+          <t>47,21; 59,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,79; 56,65</t>
+          <t>43,02; 56,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,17; 56,26</t>
+          <t>42,95; 55,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,72; 56,24</t>
+          <t>42,81; 55,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 39,61</t>
+          <t>39,45; 52,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,12; 57,38</t>
+          <t>25,86; 39,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,64; 57,01</t>
+          <t>29,07; 42,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,96; 54,82</t>
+          <t>46,44; 56,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,33; 53,48</t>
+          <t>44,83; 56,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,79; 42,54</t>
+          <t>43,73; 54,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,6; 56,57</t>
+          <t>43,37; 53,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,35; 54,92</t>
+          <t>40,68; 52,34</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>45,8; 53,85</t>
+          <t>29,85; 42,13</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>45,55; 53,52</t>
+          <t>26,67; 39,3</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>30,07; 38,88</t>
+          <t>48,83; 56,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>45,98; 54,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>44,81; 52,86</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>44,71; 52,7</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>41,63; 51,0</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>29,46; 38,89</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>29,62; 38,57</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>54,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>55,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>54,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>36,5%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>47,18%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>50,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>51,45%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>51,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52,69%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>31,94%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>51,44%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>52,47%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>54,12%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>54,25%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>52,03%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>53,91%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>54,06%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>51,9%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>34,12%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,22; 62,3</t>
+          <t>49,42; 62,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,94; 62,23</t>
+          <t>46,15; 61,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49,75; 62,71</t>
+          <t>49,26; 61,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49,39; 61,65</t>
+          <t>49,04; 61,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,52; 43,45</t>
+          <t>46,78; 61,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,77; 53,49</t>
+          <t>29,01; 43,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,67; 56,81</t>
+          <t>30,67; 45,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,19; 57,63</t>
+          <t>40,51; 53,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,12; 58,77</t>
+          <t>42,64; 55,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,09; 38,69</t>
+          <t>45,26; 57,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46,71; 56,17</t>
+          <t>46,15; 58,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,31; 57,5</t>
+          <t>41,8; 56,99</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 58,42</t>
+          <t>26,21; 38,82</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>49,93; 58,63</t>
+          <t>26,2; 39,2</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>29,35; 39,11</t>
+          <t>46,52; 56,06</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46,71; 56,93</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>48,95; 58,11</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>49,31; 58,6</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>46,72; 57,18</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>29,4; 39,1</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>30,24; 39,76</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>62,03%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>29,68%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>51,17%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>50,29%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>46,58%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
+          <t>52,11%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>51,39%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>51,76%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>51,95%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>53,92%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>33,87%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>36,11%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,24; 60,47</t>
+          <t>46,05; 60,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,25; 64,61</t>
+          <t>46,55; 62,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,36; 66,74</t>
+          <t>49,66; 65,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,92; 65,62</t>
+          <t>49,29; 64,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 37,6</t>
+          <t>52,62; 69,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,86; 57,89</t>
+          <t>22,66; 37,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,38; 57,56</t>
+          <t>26,13; 41,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,98; 53,21</t>
+          <t>45,05; 56,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,92; 54,38</t>
+          <t>41,86; 55,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,6; 46,51</t>
+          <t>40,0; 53,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47,6; 56,95</t>
+          <t>40,08; 54,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>47,48; 58,46</t>
+          <t>39,55; 56,97</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>46,58; 56,4</t>
+          <t>27,26; 46,18</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>44,92; 57,06</t>
+          <t>30,69; 46,63</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>27,94; 40,78</t>
+          <t>47,91; 56,73</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>46,15; 56,71</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>46,93; 57,69</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>46,65; 57,63</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>47,52; 60,22</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>28,39; 40,29</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>30,19; 42,32</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>48,29%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>48,28%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>46,72%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46,24%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>32,89%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>49,69%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>49,38%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>48,45%</t>
-        </is>
-      </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
+          <t>49,68%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>33,13%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,75; 53,98</t>
+          <t>48,21; 54,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,24; 54,28</t>
+          <t>46,03; 52,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,2; 53,38</t>
+          <t>46,7; 52,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,42; 52,85</t>
+          <t>45,71; 52,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,08; 36,61</t>
+          <t>45,81; 53,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,73; 50,57</t>
+          <t>30,45; 36,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,58; 51,36</t>
+          <t>30,81; 37,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,54; 49,29</t>
+          <t>45,91; 50,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,71; 49,08</t>
+          <t>45,23; 50,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,28</t>
+          <t>44,25; 49,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,76; 51,57</t>
+          <t>43,95; 49,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,1; 51,69</t>
+          <t>43,72; 49,59</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>46,59; 50,77</t>
+          <t>29,89; 36,27</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>45,78; 50,0</t>
+          <t>30,93; 37,11</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>30,86; 35,39</t>
+          <t>47,81; 51,71</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>46,45; 50,77</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>46,05; 49,88</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>45,85; 49,9</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 50,39</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>30,96; 35,42</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>31,89; 36,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>319445</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>306281</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>282087</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>260627</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>241090</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16139</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12521</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>243636</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>264295</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>239817</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>231300</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>221238</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13566</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15887</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>563082</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>570577</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>521904</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>491927</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>462328</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>29706</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>28409</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>279009; 359504</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>266806; 349169</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>232884; 324484</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>209721; 306961</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>192793; 289028</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12030; 20442</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8799; 16565</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>209121; 283907</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>220144; 301037</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>201089; 279973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>194905; 268793</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>181125; 263028</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10008; 16885</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12654; 19386</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>505465; 614944</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>516960; 628596</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>453811; 576958</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>427124; 552347</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>399875; 524754</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>24509; 35028</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>23161; 33757</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>220462</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>227193</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>235873</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>241319</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>250352</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17440</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16621</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>214562</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>186926</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>214777</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>216064</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>207382</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14992</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15944</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>435025</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>414119</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>450650</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>457382</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>457734</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>32432</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>32565</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>175586; 265949</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>172596; 278593</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>189369; 281990</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>189616; 287417</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>185635; 310265</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12484; 21894</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12477; 21227</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>181170; 249713</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>147467; 222852</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>182250; 248332</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>182946; 248865</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>168359; 248184</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11989; 18617</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12731; 19637</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>377451; 499214</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>345088; 476783</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>399162; 508029</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>394359; 514492</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>380475; 540207</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>27269; 38368</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>27191; 37907</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>304785</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>291029</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>284924</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>295219</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>290114</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17568</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20203</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>309982</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>321068</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316434</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>312238</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>322548</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13179</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14494</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>614767</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>612096</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>601357</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>607457</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>612662</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>30748</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>34697</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>258005; 350476</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>239109; 338859</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>239431; 332527</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>249031; 340800</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>235795; 339569</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14153; 21695</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15990; 24680</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>275181; 349407</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>279657; 361448</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>277262; 350182</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>274091; 344797</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>282487; 362112</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10343; 16173</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11211; 17882</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>555512; 674788</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>548625; 677947</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>549645; 662742</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>546397; 660467</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>548823; 680445</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>26468; 35364</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>30094; 40106</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>343119</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>320664</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>315096</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>315974</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>302445</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19189</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20166</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>365039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>348109</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>330172</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>318260</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>310466</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18796</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17310</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>708159</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>668773</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>645269</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>634234</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>612911</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>37985</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>37475</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>301441; 378809</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>278424; 363705</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>277435; 355678</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>273564; 351726</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>257671; 344560</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15066; 23224</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16471; 23875</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>326595; 400411</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>307379; 389924</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>293645; 365179</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>285477; 353714</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>268330; 345301</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15648; 22088</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>14271; 21028</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>655103; 760839</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>612890; 727435</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>590401; 696435</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>580025; 683730</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>546572; 669506</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>32614; 43055</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>32636; 42494</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>284737</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>269351</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>282350</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>273803</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>271686</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16239</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16799</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>237057</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>253219</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>260586</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>251158</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>15578</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>14691</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>521795</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>522570</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>542936</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>545233</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>522844</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>31817</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>31490</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>252975; 320161</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>228565; 304402</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>248203; 310754</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>241987; 304566</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>231585; 304469</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12906; 19503</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13687; 20179</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>203556; 270659</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>217076; 284183</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>227727; 290492</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>237734; 302327</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>214162; 291957</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12783; 18931</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12057; 18044</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>471926; 568612</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>469160; 571763</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>492977; 585134</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>497348; 591082</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>470664; 576046</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>27417; 36467</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>27412; 36044</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>291848</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>295900</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>307295</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>307330</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>349260</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13900</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15122</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>374121</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>353149</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>326256</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>329136</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>348578</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>23551</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>24236</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>665969</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>649050</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>633551</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>636466</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>697839</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>37451</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>39357</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>251812; 328319</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>253790; 342971</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>262781; 346955</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>262409; 345757</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>296255; 390598</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10615; 17360</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11843; 18826</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>329337; 414606</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>300452; 400545</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>277959; 369164</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>277591; 375862</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>289169; 416551</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>17369; 29427</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>19540; 29690</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>612243; 725006</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>582780; 716249</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>574484; 706176</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>571464; 705948</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>614945; 779327</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>31384; 44541</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>32913; 46127</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>588.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>684.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>788.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>647.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>791.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1481.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1235.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1470.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1464.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>1115.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>676.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1764397</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1710418</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1707625</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1694271</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1704946</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100475</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1744399</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1726767</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1688042</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1678427</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1661371</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>99663</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>102562</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3508796</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>3437185</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>3395667</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>3372698</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>3366317</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>200139</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>203993</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1663080; 1872267</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1587793; 1813561</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1610980; 1814208</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1576931; 1798457</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1563526; 1818889</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>91675; 110932</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>92165; 111038</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1658497; 1834594</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1633945; 1820306</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1597686; 1778293</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1587245; 1770356</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1570914; 1781806</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>90574; 109877</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>93275; 111916</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3376788; 3651658</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>3280736; 3585222</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>3251537; 3521848</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3237015; 3523523</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>3201720; 3530004</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>187015; 213974</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>191560; 217195</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>